--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-MSc-Big-Data-Technologies\Sparnatural-Elections-Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0580E-4858-424E-BC8A-B7F1BE1EEAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1082EC-6726-4788-8D05-4BC4195849B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="484">
   <si>
     <r>
       <rPr>
@@ -2118,6 +2118,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2130,14 +2138,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2371,14 +2371,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3563,7 +3563,7 @@
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3588,11 +3588,11 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -3604,11 +3604,11 @@
       <c r="B2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -3621,11 +3621,11 @@
         <f ca="1">CONCATENATE("https://xls2rdf.sparna.fr/rest/convert?url=",_xludf.ENCODEURL(CONCATENATE(B2,"/export?format=xlsx")),"&amp;noPostProcessings=true")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -3637,11 +3637,11 @@
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -3657,11 +3657,11 @@
         <f ca="1">_xludf.CONCAT($B$1, "/")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -6615,9 +6615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B55" sqref="B55"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7432,12 +7432,18 @@
       <c r="K21" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="L21" s="58"/>
+      <c r="L21" s="58" t="s">
+        <v>313</v>
+      </c>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
+      <c r="Q21" s="58" t="s">
+        <v>302</v>
+      </c>
       <c r="R21" s="58"/>
       <c r="S21" s="61"/>
       <c r="T21" s="61"/>
@@ -7580,14 +7586,14 @@
       <c r="G25" s="50"/>
       <c r="H25" s="51"/>
       <c r="I25" s="48"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
     </row>
@@ -8207,25 +8213,25 @@
       <c r="R41" s="58"/>
     </row>
     <row r="42" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="74"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="51"/>
       <c r="I42" s="48"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
       <c r="S42" s="55"/>
       <c r="T42" s="55"/>
     </row>
@@ -8746,25 +8752,25 @@
       <c r="R56" s="58"/>
     </row>
     <row r="57" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="74"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="51"/>
       <c r="I57" s="48"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
       <c r="S57" s="55"/>
       <c r="T57" s="55"/>
     </row>
@@ -8955,25 +8961,25 @@
       <c r="R62" s="58"/>
     </row>
     <row r="63" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="74"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="51"/>
       <c r="I63" s="48"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
       <c r="S63" s="55"/>
       <c r="T63" s="55"/>
     </row>
@@ -9054,25 +9060,25 @@
       <c r="R65" s="58"/>
     </row>
     <row r="66" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="74"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="68"/>
       <c r="H66" s="51"/>
       <c r="I66" s="48"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
       <c r="S66" s="55"/>
       <c r="T66" s="55"/>
     </row>
@@ -9115,25 +9121,25 @@
       <c r="R67" s="58"/>
     </row>
     <row r="68" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="74"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="51"/>
       <c r="I68" s="48"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="70"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="70"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
       <c r="S68" s="55"/>
       <c r="T68" s="55"/>
     </row>
@@ -9250,25 +9256,25 @@
       <c r="R71" s="58"/>
     </row>
     <row r="72" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="74"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="51"/>
       <c r="I72" s="48"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="70"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
     </row>
@@ -9391,7 +9397,7 @@
       <c r="B76" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="69" t="s">
         <v>223</v>
       </c>
       <c r="D76" s="58">
@@ -9422,25 +9428,25 @@
       <c r="T76" s="61"/>
     </row>
     <row r="77" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="74"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="51"/>
       <c r="I77" s="48"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="70"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="70"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="64"/>
       <c r="S77" s="55"/>
       <c r="T77" s="55"/>
     </row>
@@ -9473,7 +9479,9 @@
       </c>
       <c r="M78" s="58"/>
       <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
+      <c r="O78" s="58" t="s">
+        <v>125</v>
+      </c>
       <c r="P78" s="58"/>
       <c r="Q78" s="58"/>
       <c r="R78" s="58"/>
@@ -10027,25 +10035,25 @@
       <c r="R93" s="58"/>
     </row>
     <row r="94" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="72" t="s">
+      <c r="A94" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="74"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="68"/>
       <c r="H94" s="51"/>
       <c r="I94" s="48"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="70"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="64"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
+      <c r="R94" s="64"/>
       <c r="S94" s="55"/>
       <c r="T94" s="55"/>
     </row>
@@ -10078,31 +10086,33 @@
       </c>
       <c r="M95" s="58"/>
       <c r="N95" s="58"/>
-      <c r="O95" s="58"/>
+      <c r="O95" s="58" t="s">
+        <v>125</v>
+      </c>
       <c r="P95" s="58"/>
       <c r="Q95" s="58"/>
       <c r="R95" s="58"/>
     </row>
     <row r="96" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="74"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="51"/>
       <c r="I96" s="48"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="64"/>
       <c r="S96" s="55"/>
       <c r="T96" s="55"/>
     </row>
@@ -10253,25 +10263,25 @@
       <c r="R100" s="58"/>
     </row>
     <row r="101" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B101" s="70"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="74"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="68"/>
       <c r="H101" s="51"/>
       <c r="I101" s="48"/>
-      <c r="K101" s="71"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="70"/>
-      <c r="O101" s="70"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="70"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="64"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="64"/>
+      <c r="R101" s="64"/>
       <c r="S101" s="55"/>
       <c r="T101" s="55"/>
     </row>
@@ -10382,25 +10392,25 @@
       <c r="R104" s="58"/>
     </row>
     <row r="105" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="72" t="s">
+      <c r="A105" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B105" s="70"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="74"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="51"/>
       <c r="I105" s="48"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="70"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
       <c r="S105" s="55"/>
       <c r="T105" s="55"/>
     </row>
@@ -10515,25 +10525,25 @@
       <c r="R108" s="58"/>
     </row>
     <row r="109" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="72" t="s">
+      <c r="A109" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="74"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="51"/>
       <c r="I109" s="48"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="64"/>
+      <c r="M109" s="64"/>
+      <c r="N109" s="64"/>
+      <c r="O109" s="64"/>
+      <c r="P109" s="64"/>
+      <c r="Q109" s="64"/>
+      <c r="R109" s="64"/>
       <c r="S109" s="55"/>
       <c r="T109" s="55"/>
     </row>
@@ -10722,25 +10732,25 @@
       <c r="R114" s="58"/>
     </row>
     <row r="115" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="72" t="s">
+      <c r="A115" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="B115" s="70"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="74"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="68"/>
       <c r="H115" s="51"/>
       <c r="I115" s="48"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="70"/>
-      <c r="M115" s="70"/>
-      <c r="N115" s="70"/>
-      <c r="O115" s="70"/>
-      <c r="P115" s="70"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="70"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
       <c r="S115" s="55"/>
       <c r="T115" s="55"/>
     </row>
@@ -10893,25 +10903,25 @@
       <c r="R119" s="58"/>
     </row>
     <row r="120" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="72" t="s">
+      <c r="A120" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="70"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="74"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="68"/>
       <c r="H120" s="51"/>
       <c r="I120" s="48"/>
-      <c r="K120" s="71"/>
-      <c r="L120" s="70"/>
-      <c r="M120" s="70"/>
-      <c r="N120" s="70"/>
-      <c r="O120" s="70"/>
-      <c r="P120" s="70"/>
-      <c r="Q120" s="70"/>
-      <c r="R120" s="70"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="64"/>
+      <c r="M120" s="64"/>
+      <c r="N120" s="64"/>
+      <c r="O120" s="64"/>
+      <c r="P120" s="64"/>
+      <c r="Q120" s="64"/>
+      <c r="R120" s="64"/>
       <c r="S120" s="55"/>
       <c r="T120" s="55"/>
     </row>
@@ -12462,7 +12472,7 @@
           <x14:formula1>
             <xm:f>'sparnatural-config-core'!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>O37:O42 O44:O74 O76:O89 O94 O96 O101 O105 O109 O115 O120 O8:O35</xm:sqref>
+          <xm:sqref>O37:O42 O44:O74 O8:O35 O76:O89 O101 O105 O109 O115 O120 O94:O96</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12475,7 +12485,7 @@
   <dimension ref="A1:I996"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13794,7 +13804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16151,7 +16163,7 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
